--- a/PCB/PWR_Switch_PCB/Project Outputs for PWR_Switch_PCB/BOM/Bill of Materials-PWR_Switch_PCB.xlsx
+++ b/PCB/PWR_Switch_PCB/Project Outputs for PWR_Switch_PCB/BOM/Bill of Materials-PWR_Switch_PCB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\PWR_Switch_ETH\PCB\PWR_Switch_PCB\Project Outputs for PWR_Switch_PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\PWR_Switch_PCB\Project Outputs for PWR_Switch_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56655CF1-57B2-47B5-B0A7-1345665E971C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{072D4FC1-5F6A-41FC-B272-1BFF123A3A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{190FD247-7A7A-4AB1-95AF-9E2DE872F44B}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{023B8DE1-E9E7-4E28-8408-49782D484FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PWR_Switch_PC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>Comment</t>
   </si>
@@ -53,10 +53,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>0.1 uF</t>
-  </si>
-  <si>
-    <t/>
+    <t>0603 0.1 uF</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor</t>
   </si>
   <si>
     <t>C1, C2, C3, C4, C5, C6</t>
@@ -68,10 +68,10 @@
     <t>Capasitor</t>
   </si>
   <si>
-    <t>{Value}</t>
-  </si>
-  <si>
-    <t>Конденсатор электролитический танталовый TypeD</t>
+    <t>22uf 35V</t>
+  </si>
+  <si>
+    <t>Tantal TypeD HGD226K035T</t>
   </si>
   <si>
     <t>C8, C10, C17</t>
@@ -83,34 +83,37 @@
     <t>C - EL_Tantal_SMD_TypeD</t>
   </si>
   <si>
+    <t>18112 4.7 uF</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CAPCHIP1812</t>
+  </si>
+  <si>
     <t>Cap C</t>
   </si>
   <si>
-    <t>Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CAPCHIP1812</t>
+    <t>470µF 35V</t>
+  </si>
+  <si>
+    <t>EEEFK1V471SV 470µF 35V Aluminum Electrolytic Capacitors Radial, Can - SMD 80mOhm @ 100kHz 2000 Hrs @ 105°C</t>
+  </si>
+  <si>
+    <t>C12, C15, C19, C21</t>
+  </si>
+  <si>
+    <t>CAP_EEEFK1V471SV</t>
   </si>
   <si>
     <t>EEEFK1V471SV</t>
   </si>
   <si>
-    <t>470ÂµF 35V Aluminum Electrolytic Capacitors Radial, Can - SMD 80mOhm @ 100kHz 2000 Hrs @ 105Â°C</t>
-  </si>
-  <si>
-    <t>C12, C15, C19, C21</t>
-  </si>
-  <si>
-    <t>CAP_EEEFK1V471SV</t>
-  </si>
-  <si>
-    <t>220uF 50v</t>
-  </si>
-  <si>
-    <t>Polarized Capacitor (Rad)</t>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarized Capacitor (Rad) 220uF 50v </t>
   </si>
   <si>
     <t>C13, C14, C18, C20</t>
@@ -134,16 +137,31 @@
     <t>DIOM7958X213N</t>
   </si>
   <si>
+    <t>SMA-2  ES1J</t>
+  </si>
+  <si>
+    <t>Diode Standard 600V 1A Surface Mount SMA (DO-214AC)</t>
+  </si>
+  <si>
+    <t>D2, D4, D6, D8, D11, D14</t>
+  </si>
+  <si>
+    <t>DIO_ES1J</t>
+  </si>
+  <si>
     <t>ES1J</t>
   </si>
   <si>
-    <t>Diode Standard 600V 1A Surface Mount SMA (DO-214AC)</t>
-  </si>
-  <si>
-    <t>D2, D4, D6, D8, D11, D14</t>
-  </si>
-  <si>
-    <t>DIO_ES1J</t>
+    <t>B340A-13</t>
+  </si>
+  <si>
+    <t>Diode Schottky 40 V 3A Surface Mount SMA</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>DIOM5226X240N</t>
   </si>
   <si>
     <t>LM2596S-ADJ</t>
@@ -170,55 +188,58 @@
     <t>DG2</t>
   </si>
   <si>
+    <t>SRR1208-680Y</t>
+  </si>
+  <si>
+    <t>68µH Shielded Wirewound Inductor 1.8A 18mOhm Max Nonstandard</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>SRR1208</t>
+  </si>
+  <si>
     <t>SRR1208-6R5ML</t>
   </si>
   <si>
-    <t>6.5ÂµH Shielded Wirewound Inductor 6A 18mOhm Max Nonstandard</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>SRR1208</t>
+    <t>IRFB7730</t>
+  </si>
+  <si>
+    <t>N-Channel Power Transistor - TO-220</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6</t>
+  </si>
+  <si>
+    <t>up-miror</t>
   </si>
   <si>
     <t>IRF</t>
   </si>
   <si>
-    <t>N-Channel Power Transistor - TO-220</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6</t>
-  </si>
-  <si>
-    <t>up-miror</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R6, R8, R14, R15, R16, R17, R18, R19, R25, R26, R32, R33, R35, R36, R41, R43, R44, R48, R49, R50, R51, R53</t>
+    <t>0402 10K</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R6, R8, R18, R19, R25, R26, R32, R33, R35, R36, R41, R43, R44, R48, R49, R50, R51, R53</t>
   </si>
   <si>
     <t>Resistor 0402</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>R5, R7</t>
-  </si>
-  <si>
-    <t>3K</t>
+    <t>R5, R7, R29, R30, R56, R57</t>
+  </si>
+  <si>
+    <t>0402 3K</t>
   </si>
   <si>
     <t>R9, R10, R11, R12, R54</t>
   </si>
   <si>
-    <t>33R</t>
+    <t>0603 33R</t>
   </si>
   <si>
     <t>R13, R27, R31, R37, R42, R52</t>
@@ -227,18 +248,18 @@
     <t>Resistor 0603</t>
   </si>
   <si>
-    <t>1,5k</t>
+    <t>0402 1K</t>
+  </si>
+  <si>
+    <t>R14, R15, R16, R17</t>
+  </si>
+  <si>
+    <t>0603 1,5k</t>
   </si>
   <si>
     <t>R20, R28, R34, R38, R45, R55</t>
   </si>
   <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R21, R22, R23, R24</t>
-  </si>
-  <si>
     <t>0603 9.1k</t>
   </si>
   <si>
@@ -293,7 +314,13 @@
     <t>SOIC127P1032X265-16N</t>
   </si>
   <si>
-    <t>VD1, VD2, VD3, VD4</t>
+    <t>0805 G</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>VD1, VD2, VD3, VD4, VD5</t>
   </si>
   <si>
     <t>0805-</t>
@@ -302,16 +329,10 @@
     <t>LED SMD</t>
   </si>
   <si>
-    <t>one color</t>
-  </si>
-  <si>
-    <t>VD5</t>
-  </si>
-  <si>
     <t>LM1117MPX-3.3</t>
   </si>
   <si>
-    <t>800-mA 15-V linear voltage regulator</t>
+    <t>800-mA 3.3-V linear voltage regulator</t>
   </si>
   <si>
     <t>VR1</t>
@@ -320,7 +341,7 @@
     <t>VREG_LM1117MPX-3.3</t>
   </si>
   <si>
-    <t>NMOS GSD</t>
+    <t xml:space="preserve">sot23 BSS138 </t>
   </si>
   <si>
     <t>N-Channel Power MOSFET</t>
@@ -335,6 +356,9 @@
     <t>BSS138</t>
   </si>
   <si>
+    <t>PLS-5 2.54</t>
+  </si>
+  <si>
     <t>Header, 5-Pin</t>
   </si>
   <si>
@@ -365,10 +389,7 @@
     <t>X4</t>
   </si>
   <si>
-    <t>PLD-10RR1</t>
-  </si>
-  <si>
-    <t>IRFB7730</t>
+    <t>PLD-10RR2</t>
   </si>
 </sst>
 </file>
@@ -751,15 +772,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727CE688-70E7-422A-9708-0DC94D99C251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A61437-E064-416F-83E5-FF843338B2DA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -831,22 +850,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -860,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
@@ -868,19 +887,19 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -888,19 +907,19 @@
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="4">
         <v>8</v>
@@ -908,215 +927,219 @@
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="4">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4">
         <v>6</v>
@@ -1124,193 +1147,199 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1318,19 +1347,19 @@
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F29" s="4">
         <v>6</v>
@@ -1338,19 +1367,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -1358,19 +1387,19 @@
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -1378,19 +1407,19 @@
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1399,6 +1428,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB/PWR_Switch_PCB/Project Outputs for PWR_Switch_PCB/BOM/Bill of Materials-PWR_Switch_PCB.xlsx
+++ b/PCB/PWR_Switch_PCB/Project Outputs for PWR_Switch_PCB/BOM/Bill of Materials-PWR_Switch_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\PWR_Switch_PCB\Project Outputs for PWR_Switch_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{072D4FC1-5F6A-41FC-B272-1BFF123A3A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4199B0-BC33-4EF6-812B-ABE70EF2D0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{023B8DE1-E9E7-4E28-8408-49782D484FFA}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{2D896703-3365-414E-B101-08DD91E78838}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PWR_Switch_PC" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>NC</t>
   </si>
   <si>
-    <t xml:space="preserve">Polarized Capacitor (Rad) 220uF 50v </t>
+    <t>Polarized Capacitor (Rad) 220uF 50v</t>
   </si>
   <si>
     <t>C13, C14, C18, C20</t>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A61437-E064-416F-83E5-FF843338B2DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7EF571-55A1-438E-9A57-50FDDB2BEBC7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
